--- a/m1/u1/ejercicios/20191030/Funciones de Texto/Codigos de moda.xlsx
+++ b/m1/u1/ejercicios/20191030/Funciones de Texto/Codigos de moda.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Cursos\Excel\Material práctico\Textos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191030\Funciones de Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
